--- a/Data/异常值报告.xlsx
+++ b/Data/异常值报告.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,6 +526,11 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
+          <t>医保基金支付金额</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
           <t>状态(转门诊/转住院)</t>
         </is>
       </c>
@@ -608,6 +613,11 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
           <t>转门诊</t>
         </is>
       </c>
@@ -695,6 +705,11 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
           <t>转门诊</t>
         </is>
       </c>
@@ -782,6 +797,11 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
           <t>转门诊</t>
         </is>
       </c>
@@ -869,6 +889,11 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>转门诊</t>
         </is>
       </c>
@@ -956,6 +981,11 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
+          <t>949.68</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
           <t>转门诊</t>
         </is>
       </c>
@@ -1043,6 +1073,11 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
           <t>转门诊</t>
         </is>
       </c>
@@ -1130,6 +1165,11 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
           <t>转门诊</t>
         </is>
       </c>
@@ -1217,6 +1257,11 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
           <t>转门诊</t>
         </is>
       </c>
@@ -1299,6 +1344,11 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
           <t>转门诊</t>
         </is>
       </c>
@@ -1386,6 +1436,11 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
           <t>转门诊</t>
         </is>
       </c>
@@ -1473,6 +1528,11 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
           <t>转门诊</t>
         </is>
       </c>
@@ -1560,6 +1620,11 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
           <t>转门诊</t>
         </is>
       </c>
@@ -1647,6 +1712,11 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
           <t>转门诊</t>
         </is>
       </c>
@@ -1734,6 +1804,11 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
           <t>转门诊</t>
         </is>
       </c>
@@ -1821,6 +1896,11 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
           <t>转门诊</t>
         </is>
       </c>
@@ -1908,6 +1988,11 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
           <t>转门诊</t>
         </is>
       </c>
@@ -1995,6 +2080,11 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
           <t>转门诊</t>
         </is>
       </c>
@@ -2082,6 +2172,11 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
           <t>转门诊</t>
         </is>
       </c>
@@ -2169,6 +2264,11 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
           <t>转门诊</t>
         </is>
       </c>
@@ -2256,6 +2356,11 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
+          <t>321.73</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
           <t>转门诊</t>
         </is>
       </c>
@@ -2343,6 +2448,11 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
           <t>转门诊</t>
         </is>
       </c>
@@ -2430,6 +2540,11 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
+          <t>542.73</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
           <t>转门诊</t>
         </is>
       </c>
@@ -2517,6 +2632,11 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
           <t>转门诊</t>
         </is>
       </c>
@@ -2604,6 +2724,11 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
           <t>转门诊</t>
         </is>
       </c>
@@ -2691,6 +2816,11 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
           <t>转门诊</t>
         </is>
       </c>
@@ -2778,6 +2908,11 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
           <t>转门诊</t>
         </is>
       </c>
@@ -2864,6 +2999,287 @@
         </is>
       </c>
       <c r="T28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>转门诊</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>骨二科</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>宫焕章</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0001243420</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>46岁</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>^</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>陈双涛</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2024-11-25 09:11:21</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>405854</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2024-11-21 08:41:31</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>骨二科</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>转门诊</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>骨一科</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>李秀安</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0001250847</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>78岁</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>^</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2024-11-20</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>彭祥平</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2024-11-20 15:30:41</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>405865</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2024-11-21 14:05:52</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>骨一科</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>893.88</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>转门诊</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>骨二科</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>李反芹</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0001252807</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>76岁</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>^</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>侯心昕</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2024-12-05 08:09:24</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>406566</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2024-12-01 07:40:13</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>骨二科</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>4325.24</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
         <is>
           <t>转门诊</t>
         </is>
@@ -2880,7 +3296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2986,6 +3402,11 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
+          <t>医保基金支付金额</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
           <t>状态(转门诊/转住院)</t>
         </is>
       </c>
@@ -3083,6 +3504,11 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
+          <t>4876.11</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
           <t>转住院</t>
         </is>
       </c>
@@ -3180,6 +3606,11 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
+          <t>3232.87</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
           <t>转住院</t>
         </is>
       </c>
@@ -3281,6 +3712,113 @@
         </is>
       </c>
       <c r="T4" t="inlineStr">
+        <is>
+          <t>2767.36</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>转住院</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>内二科</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>吴香梅</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0001236117</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77岁</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>冠状动脉粥样硬化性心脏病*冠状动脉粥样硬化性心脏病^I25.103</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2024-11-15</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>张翼飞</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2024-11-16 12:02:18</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>黄连铭</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>405481</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2024-12-11 10:47:27</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>内一科</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>医嘱离院</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>46812.15</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>37351.97</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
         <is>
           <t>转住院</t>
         </is>
@@ -3297,7 +3835,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3403,6 +3941,11 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
+          <t>医保基金支付金额</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
           <t>状态(转门诊/转住院)</t>
         </is>
       </c>
@@ -3500,6 +4043,11 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
+          <t>3915.39</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
           <t>转住院</t>
         </is>
       </c>
@@ -3597,6 +4145,11 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
+          <t>22318.93</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
           <t>转住院</t>
         </is>
       </c>
@@ -3694,6 +4247,11 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
+          <t>49159.66</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
           <t>转住院</t>
         </is>
       </c>
@@ -3790,6 +4348,113 @@
         </is>
       </c>
       <c r="T5" t="inlineStr">
+        <is>
+          <t>16945.65</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>转住院</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>骨九科</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>刘书粉</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0001165163</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85岁</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>骨质疏松伴有病理性骨折*骨质疏松伴有病理性骨折^M80.900</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>杨克</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2024-11-25 16:31:35</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>甄胜达</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>391406</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2024-11-30 10:10:35</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>内二科</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>医嘱离院</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>13469.76</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>7624.78</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
         <is>
           <t>转住院</t>
         </is>
@@ -3806,7 +4471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3912,6 +4577,11 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
+          <t>医保基金支付金额</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
           <t>状态(转门诊/转住院)</t>
         </is>
       </c>
@@ -3992,6 +4662,11 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
           <t>转住院</t>
         </is>
       </c>
@@ -4072,6 +4747,11 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
           <t>转住院</t>
         </is>
       </c>
@@ -4152,6 +4832,11 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
           <t>转住院</t>
         </is>
       </c>
@@ -4237,6 +4922,11 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>转住院</t>
         </is>
       </c>
@@ -4322,6 +5012,11 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
           <t>转住院</t>
         </is>
       </c>
@@ -4406,6 +5101,101 @@
         </is>
       </c>
       <c r="T7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>转住院</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>骨九科</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>甄达玉</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0001246789</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68岁</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>^</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2024-11-09</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>李琰</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2024-11-10 08:39:25</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>李琰</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2024-11-11 15:02:44</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>骨九科</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
         <is>
           <t>转住院</t>
         </is>
@@ -4518,7 +5308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4624,10 +5414,15 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
+          <t>医保基金支付金额</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
           <t>状态(转门诊/转住院)</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>待床日数字</t>
         </is>
@@ -4724,10 +5519,15 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
           <t>转住院</t>
         </is>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4822,10 +5622,15 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
           <t>转住院</t>
         </is>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4920,10 +5725,15 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
+          <t>9536.97</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
           <t>转住院</t>
         </is>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5018,10 +5828,15 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
+          <t>1268.45</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>转住院</t>
         </is>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5116,10 +5931,15 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
+          <t>1807.93</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
           <t>转住院</t>
         </is>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5214,10 +6034,15 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
+          <t>3757.09</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
           <t>转住院</t>
         </is>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5312,11 +6137,119 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
           <t>转住院</t>
         </is>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>外四科</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>宁献辉</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0001138792</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>40岁</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>上肢肿瘤*左上肢肿物^D48.718</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>高少科</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2024-11-05 08:10:05</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>高少科</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>404665</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2024-11-09 08:40:30</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>外四科</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>医嘱离院</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>2991.89</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>1243.74</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>转住院</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5330,7 +6263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5436,10 +6369,15 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
+          <t>医保基金支付金额</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
           <t>状态(转门诊/转住院)</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>待床日数字</t>
         </is>
@@ -5536,10 +6474,15 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
+          <t>22927.97</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
           <t>转住院</t>
         </is>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5639,10 +6582,15 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
           <t>转住院</t>
         </is>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -5657,7 +6605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11367,6 +12315,1206 @@
         <v>2</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>侯保霞</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>404595</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>67岁</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>吴华荣</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>经皮椎骨成形术</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2024-11-04 11:48:00</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>骨六科</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>骨六科</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2024-11-05 11:55:32</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>10676.11</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>门诊</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="O77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>王秀香</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>387179</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>70岁</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>刘阳</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>经皮穿刺脊柱后凸成形术</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2024-11-04 15:30:00</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>骨九科</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>骨九科</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>2024-11-06 07:51:23</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>10130.19</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>门诊</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="O78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>宋捧苏</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>404829</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>61岁</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>李琰</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>经皮穿刺脊柱后凸成形术</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2024-11-06 09:26:00</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>骨九科</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>骨九科</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2024-11-07 09:41:36</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>10959.32</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>门诊</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="O79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>王春举</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>404830</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>80岁</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>杨克</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>经皮穿刺脊柱后凸成形术</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2024-11-06 09:45:00</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>骨九科</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>骨九科</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>2024-11-08 08:41:32</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>12712.21</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>门诊</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="O80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>李柱玲</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>404991</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>74岁</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>李少青</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>经皮穿刺脊柱后凸成形术</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2024-11-08 15:24:00</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>骨一科</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>骨一科</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2024-11-10 11:12:08</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>15085.40</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>门诊</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="O81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>陈民英</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>405097</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>78岁</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>杨克</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>经皮穿刺脊柱后凸成形术</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2024-11-10 16:00:00</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>骨九科</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>骨九科</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2024-11-12 09:06:25</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>11895.59</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>门诊</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="O82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>王立英</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>404845</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>59岁</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>张尚普</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>关节镜膝关节滑膜切除术</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2024-11-12 09:11:00</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>骨七科</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>骨七科</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2024-11-13 09:17:39</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>13057.94</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>门诊</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="O83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>高玉芹</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>405225</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>68岁</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>王少锋</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>经皮椎体球囊扩张成形术</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2024-11-13 08:45:00</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>骨九科</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>骨九科</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>2024-11-14 09:07:12</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>12229.07</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>门诊</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="O84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>朱东梅</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>405253</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>62岁</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>王少锋</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>经皮椎体球囊扩张成形术</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2024-11-13 08:45:00</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>骨九科</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>骨九科</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>2024-11-14 09:07:49</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>11943.19</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>门诊</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="O85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>成立霞</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>405255</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>56岁</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>王冬月</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>腱鞘松解术</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2024-11-13 08:19:00</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>骨八科</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>骨八科</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2024-11-13 16:58:42</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>1434.43</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>门诊</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+      <c r="O86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>石采云</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>405375</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>67岁</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>张梦鑫</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>经皮穿刺脊柱后凸成形术</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2024-11-13 16:20:00</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>骨九科</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>骨九科</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:42:21</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>12345.28</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>门诊</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="O87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>赵彩云</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>405389</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>55岁</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>徐伟坤</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>经皮穿刺脊柱后凸成形术</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2024-11-13 17:38:00</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>骨六科</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>骨六科</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:49:41</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>11048.42</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>门诊</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="O88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>赵小凤</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>385944</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>65岁</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>郭二松</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>经皮穿刺脊柱后凸成形术</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2024-11-15 10:41:00</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>骨一科</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>骨一科</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>2024-11-17 09:08:07</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>11317.86</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>门诊</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="O89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>李峰</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>387664</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>52岁</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>薛晓乐</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>锁骨内固定装置去除术</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2024-11-22 08:06:00</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>骨四科</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>骨四科</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>2024-11-22 16:00:30</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>5714.66</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>门诊</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="O90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>吉孟女</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>406126</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>70岁</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>王少锋</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>经皮椎体球囊扩张成形术</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2024-11-24 11:25:00</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>骨九科</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>骨九科</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>2024-11-26 08:17:34</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>14816.22</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>门诊</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="O91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>赵丽芳</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>372428</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>41岁</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>薛晓乐</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>桡骨内固定装置去除术</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2024-11-27 09:16:00</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>骨四科</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>骨四科</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>2024-11-27 15:17:15</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>4446.42</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>门诊</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+      <c r="O92" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
